--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit\LMI\ReportsAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF39BC82-7F43-459D-8F94-CB9806D04B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96CA882-D5F7-4B06-B728-5D63116328E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -124,9 +124,6 @@
     <t>The effects of your behavior may not be apparent to you, but your scores indicate that they need urgent attention. Sometimes we learn to behave in a certain way because it makes us feel good, but not everything that feels good is healthy in the long run. Observe what you are doing or avoiding daily. Learn to differentiate between what actions are helpful and unhelpful in the long run. Think of the consequences of your actions for yourself and others in both the short and long term. For example, avoiding studies feels good but isn’t helpful in the long run. Practice behavioral habits that will be beneficial for you and others. Also, practice avoiding actions that are unhelpful or harmful. Even if some of your actions seem beyond control, they can be managed. Seek assistance to learn behavioral management techniques.</t>
   </si>
   <si>
-    <t>Thinking</t>
-  </si>
-  <si>
     <t>Good thoughts will turn into good actions! You are doing a great job in positively dealing with your thoughts. Continue to manage your thoughts well.</t>
   </si>
   <si>
@@ -139,9 +136,6 @@
     <t>Your scores suggest that you are experiencing negative thoughts that can be distressing, and these thoughts are in a concerning range. Our brain is a constant thinking machine. When something happens that we don’t like, we can have negative thoughts. Do not believe all negative thoughts. If your thoughts continue to be troublesome, seek assistance from your parents or any trusted adults and talk to a therapist.</t>
   </si>
   <si>
-    <t>Body_signals</t>
-  </si>
-  <si>
     <t>Your body seems to be happy with how you are taking care of it! Kudos to you for listening to your body! Continue to manage your body’s health.</t>
   </si>
   <si>
@@ -154,9 +148,6 @@
     <t>Your physical health needs urgent attention. There are many causes of bodily signals, and most of them are normal. Sometimes you feel uncomfortable in your body, and that can be a signal for the body to take action. For example, hunger signals you to eat food, thirst signals you to drink water, and pain signals you to take action or rest. Prolonged and intense distress needs to be evaluated by a doctor. Get your regular health check-up done if you haven't had one in the last six months. If you are already aware of your physical condition and taking medical assistance, stay on track with the doctor’s advice.</t>
   </si>
   <si>
-    <t>Emotions</t>
-  </si>
-  <si>
     <t>Congrats on how well you are managing your emotions! Continue the good work.</t>
   </si>
   <si>
@@ -181,7 +172,16 @@
     <t>The overall scores are problematic. The details provided below should be checked for the issues being faced. These issues require additional evaluation and assistance. A consultation with a counselor or psychologist is advised. Many people go through this during adolescence and are able to successfully deal with the challenges they are going through. This is the right time to take action. Waiting for problems to resolve on their own without taking action can make them worse. Take a look at each section so you can take action today.</t>
   </si>
   <si>
-    <t>Composite scores</t>
+    <t>thinking</t>
+  </si>
+  <si>
+    <t>body_signals</t>
+  </si>
+  <si>
+    <t>emotions</t>
+  </si>
+  <si>
+    <t>composite_score</t>
   </si>
 </sst>
 </file>
@@ -447,7 +447,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="A39" sqref="A39:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -804,7 +804,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B26" s="1">
         <v>0</v>
@@ -813,12 +813,12 @@
         <v>5</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B27" s="1">
         <v>6</v>
@@ -827,12 +827,12 @@
         <v>10</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B28" s="1">
         <v>11</v>
@@ -841,12 +841,12 @@
         <v>15</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="B29" s="1">
         <v>16</v>
@@ -855,12 +855,12 @@
         <v>20</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -869,12 +869,12 @@
         <v>3</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B31" s="1">
         <v>4</v>
@@ -883,12 +883,12 @@
         <v>6</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B32" s="1">
         <v>7</v>
@@ -897,12 +897,12 @@
         <v>9</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B33" s="1">
         <v>10</v>
@@ -911,12 +911,12 @@
         <v>12</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B34" s="1">
         <v>0</v>
@@ -925,12 +925,12 @@
         <v>7</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B35" s="1">
         <v>8</v>
@@ -939,12 +939,12 @@
         <v>14</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B36" s="1">
         <v>15</v>
@@ -953,12 +953,12 @@
         <v>21</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="B37" s="1">
         <v>22</v>
@@ -967,7 +967,7 @@
         <v>28</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -981,7 +981,7 @@
         <v>32</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -995,7 +995,7 @@
         <v>64</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -1009,7 +1009,7 @@
         <v>96</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -1023,7 +1023,7 @@
         <v>128</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit\LMI\ReportsAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D96CA882-D5F7-4B06-B728-5D63116328E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CA815D-B423-4C98-9C4D-B4FC3DCC7CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -446,8 +446,8 @@
   </sheetPr>
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:A41"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1020,7 +1020,7 @@
         <v>97</v>
       </c>
       <c r="C41" s="1">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>49</v>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit\LMI\ReportsAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80CA815D-B423-4C98-9C4D-B4FC3DCC7CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E992F099-14BA-439E-8F4A-C4A3B31C25ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$41</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
@@ -446,7 +449,7 @@
   </sheetPr>
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
@@ -530,7 +533,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -541,10 +544,10 @@
         <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>11</v>
@@ -555,10 +558,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>12</v>
@@ -569,10 +572,10 @@
         <v>9</v>
       </c>
       <c r="B9" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>13</v>
@@ -586,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>15</v>
@@ -597,10 +600,10 @@
         <v>14</v>
       </c>
       <c r="B11" s="1">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1">
         <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <v>6</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>16</v>
@@ -611,10 +614,10 @@
         <v>14</v>
       </c>
       <c r="B12" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>17</v>
@@ -625,10 +628,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>18</v>
@@ -642,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>20</v>
@@ -653,10 +656,10 @@
         <v>19</v>
       </c>
       <c r="B15" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C15" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>21</v>
@@ -667,10 +670,10 @@
         <v>19</v>
       </c>
       <c r="B16" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C16" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>22</v>
@@ -681,10 +684,10 @@
         <v>19</v>
       </c>
       <c r="B17" s="1">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>23</v>
@@ -754,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="C22" s="1">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>30</v>
@@ -765,10 +768,10 @@
         <v>29</v>
       </c>
       <c r="B23" s="1">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C23" s="1">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>31</v>
@@ -779,10 +782,10 @@
         <v>29</v>
       </c>
       <c r="B24" s="1">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C24" s="1">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>32</v>
@@ -793,10 +796,10 @@
         <v>29</v>
       </c>
       <c r="B25" s="1">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C25" s="1">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>33</v>
@@ -922,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="1">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>42</v>
@@ -933,10 +936,10 @@
         <v>52</v>
       </c>
       <c r="B35" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C35" s="1">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>43</v>
@@ -947,10 +950,10 @@
         <v>52</v>
       </c>
       <c r="B36" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C36" s="1">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>44</v>
@@ -961,10 +964,10 @@
         <v>52</v>
       </c>
       <c r="B37" s="1">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C37" s="1">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>45</v>
@@ -978,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="1">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>46</v>
@@ -989,10 +992,10 @@
         <v>53</v>
       </c>
       <c r="B39" s="1">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C39" s="1">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>47</v>
@@ -1003,10 +1006,10 @@
         <v>53</v>
       </c>
       <c r="B40" s="1">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C40" s="1">
-        <v>96</v>
+        <v>126</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>48</v>
@@ -1017,16 +1020,17 @@
         <v>53</v>
       </c>
       <c r="B41" s="1">
-        <v>97</v>
+        <v>127</v>
       </c>
       <c r="C41" s="1">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D41" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit\LMI\ReportsAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E992F099-14BA-439E-8F4A-C4A3B31C25ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92EEC842-6F5B-4FC2-921F-2D6E9B1C81AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="95">
   <si>
     <t>Parameter</t>
   </si>
@@ -185,6 +185,129 @@
   </si>
   <si>
     <t>composite_score</t>
+  </si>
+  <si>
+    <t>Hindi Response</t>
+  </si>
+  <si>
+    <t>स्क्रीन टाइम सामान्य सीमा के अंतर्गत है। स्क्रीन टाइम को नियंत्रित रखने के लिए बधाई! इसे अनुशंसित स्तरों के अंतर्गत रखना जारी रखें।</t>
+  </si>
+  <si>
+    <t>स्क्रीन टाइम सामान्य सीमा से थोड़ा ऊपर है। स्क्रीन टाइम कम करना मददगार होगा। पहला कदम प्रतिदिन कुल स्क्रीन उपयोग की सही निगरानी करना है। इसे अनुशंसित स्तरों पर लाने के लिए हर दिन इसे थोड़ा कम करने का प्रयास करें। आप स्क्रीन टाइम को नियंत्रित करने वाले ऐप या टाइमर का उपयोग कर सकते हैं, नोटिफ़िकेशन हटा सकते हैं, नियमित रूप से स्क्रीन ब्रेक ले सकते हैं, समय बर्बाद करने वाले ऐप हटा सकते हैं या छिपा सकते हैं, और परिवार के सदस्यों से आपका स्क्रीन टाइम सीमित करने में मदद करने के लिए कह सकते हैं।</t>
+  </si>
+  <si>
+    <t>अपने स्क्रीन टाइम पर नज़र रखें, यह चिंताजनक सीमा में है। अक्सर बोरियत, चिंता, अकेलापन आदि जैसी अंतर्निहित भावनाएँ स्क्रीन टाइम को नियंत्रित करना मुश्किल बना सकती हैं। अपने स्क्रीन टाइम को कम करना मददगार होगा। पहला कदम प्रतिदिन कुल स्क्रीन उपयोग की सही निगरानी करना है। फिर इसे अनुशंसित स्तरों पर लाने के लिए हर दिन थोड़ा कम करने का प्रयास करें। आप स्क्रीन टाइम को नियंत्रित करने वाले ऐप या टाइमर का उपयोग कर सकते हैं, नोटिफ़िकेशन हटा सकते हैं, नियमित रूप से स्क्रीन ब्रेक ले सकते हैं, समय बर्बाद करने वाले ऐप को हटा या छिपा सकते हैं, और परिवार के सदस्यों से स्क्रीन एक्सेस को सीमित करने में मदद करने के लिए कह सकते हैं।</t>
+  </si>
+  <si>
+    <t>स्क्रीन टाइम समस्याग्रस्त सीमा में है। अक्सर बोरियत, चिंता, अकेलापन आदि जैसी अंतर्निहित भावनाएँ स्क्रीन टाइम को नियंत्रित करना कठिन बना सकती हैं। इसे कम करना मददगार होगा। पहला कदम प्रतिदिन कुल स्क्रीन उपयोग की सटीक निगरानी करना है। इसे अनुशंसित स्तर पर लाने के लिए हर दिन थोड़ा कम करने का प्रयास करें, जो कि 1-2 घंटे है। यदि स्वयं को नियंत्रित करना मुश्किल है, तो स्क्रीन टाइम को प्रबंधित करने का तरीका जानने के लिए सहायता लें। आप स्क्रीन टाइम मॉनिटरिंग ऐप का उपयोग कर सकते हैं, नोटिफ़िकेशन हटा सकते हैं और परिवार के सदस्यों से स्क्रीन एक्सेस को सीमित करने में मदद करने के लिए कह सकते हैं। घर पर ग्रीन ज़ोन रखें जहाँ आप स्क्रीन का बिल्कुल भी उपयोग नहीं करेंगे, जैसे कि डाइनिंग टेबल, बिस्तर, वॉशरूम आदि।</t>
+  </si>
+  <si>
+    <t>आप उचित स्तर और गुणवत्ता की नींद ले रहे हैं। अनुशंसित स्तरों के अनुसार अपनी नींद का समय अच्छी तरह से प्रबंधित करना जारी रखें।</t>
+  </si>
+  <si>
+    <t>नींद की अवधि सामान्य सीमा से थोड़ी कम है। आपकी उम्र के हिसाब से आदर्श नींद की अवधि प्रति रात 8-10 घंटे है, और आदर्श नींद का समय रात 8-10 बजे से सुबह 6 बजे तक है। अपनी नींद की अवधि पर नज़र रखें और इसे अनुशंसित स्तरों पर लाने का प्रयास करें। नींद में छोटे-छोटे बदलाव करना, जैसे कि पिछली रात की तुलना में हर दिन 15 मिनट पहले सोना, लंबे समय में बहुत फ़ायदेमंद होगा। सोने के शेड्यूल का पालन करें, सोने से कुछ घंटे पहले हल्का खाना खाएं और अपने कमरे को अंधेरा, शांत और ठंडा रखें।</t>
+  </si>
+  <si>
+    <t>अपनी नींद के समय और अवधि पर नज़र रखें। यह चिंताजनक सीमा में है। कई नकारात्मक भावनाएँ, आदतें और काम या जीवन से जुड़ी परिस्थितियाँ नींद की खराब गुणवत्ता का कारण बन सकती हैं। हो सकता है कि आपको खराब नींद के प्रभाव महसूस न हों, लेकिन यह आपको नुकसान पहुँचाता है। सोने की आदतों में छोटे और प्रबंधनीय बदलाव करने से, जैसे कि हर दिन 15 मिनट पहले सोना, लंबे समय में बहुत फ़ायदेमंद होगा। सोने के शेड्यूल का पालन करें, सोने से कुछ घंटे पहले हल्का खाना खाएं और अपने कमरे को अंधेरा, शांत और ठंडा रखें।</t>
+  </si>
+  <si>
+    <t>नींद की अवधि और गुणवत्ता समस्याग्रस्त हैं। नींद के समय, अवधि और गुणवत्ता को विनियमित करने और इसे अनुशंसित स्तरों पर लाने के लिए सहायता मांगी जानी चाहिए। कई नकारात्मक भावनाएँ, आदतें और काम या जीवन से जुड़ी स्थितियाँ नींद की खराब गुणवत्ता का कारण बन सकती हैं, और हो सकता है कि आपको खराब नींद के प्रभाव का एहसास न हो। सोने की आदतों में छोटे और प्रबंधनीय बदलाव करने से, जैसे कि हर दिन 15 मिनट पहले सोना, लंबे समय में बहुत फ़ायदेमंद साबित होगा। सोने के शेड्यूल का पालन करें, सोने से कुछ घंटे पहले हल्का खाना खाएं और अपने कमरे को अंधेरा, शांत और ठंडा रखें। जागने के लिए जिस तरह आप अलार्म सेट करते हैं, उसी तरह सोने के लिए अलार्म सेट करने से भी मदद मिलेगी। अगर ये तरीके काम न करें, तो डॉक्टर से मिलें और जाँच करें कि कहीं कोई ऐसा कारण तो नहीं है जिसकी वजह से आपको अच्छी नींद नहीं आ रही है।</t>
+  </si>
+  <si>
+    <t>आपकी खाने की आदतें सही दिशा में हैं। इसे जारी रखें। अनुशंसित स्तरों के अनुसार अपने खाने के पैटर्न को प्रबंधित करना जारी रखें।</t>
+  </si>
+  <si>
+    <t>खाने की आदतें थोड़ी चिंताजनक हैं। खाने की आदतों में बदलाव करके अधिक पौष्टिक भोजन जैसे सूखे मेवे, फल, अंडे, सब्जियाँ, दूध से बने उत्पाद शामिल करें और जंक फूड कम करें, खाना न छोड़ें और मात्रा पर नियंत्रण रखें (इच्छा के अनुसार नहीं बल्कि भूख के अनुसार खाना)।</t>
+  </si>
+  <si>
+    <t>अपने खाने की आदतों पर नज़र रखें, वे चिंताजनक सीमा में हैं। कभी-कभी, कमियों और पोषण असंतुलन के कारण खाने के पैटर्न में गड़बड़ी हो जाती है। इसे दूर करने के लिए स्वास्थ्य जांच की आवश्यकता हो सकती है। हालांकि, कभी-कभी यह जीवनशैली की प्राथमिकताओं या व्यक्तिगत भोजन विकल्पों के कारण भी होता है। खाने की आदतों को बदलकर अधिक पौष्टिक भोजन जैसे सूखे मेवे, अंडे, फल, सब्जियाँ, दूध से बने उत्पाद, जंक फूड कम करना, भोजन न छोड़ना और भाग नियंत्रण (भूख के अनुसार खाना और इच्छा के अनुसार नहीं) शामिल करने की सलाह दी जाती है। यदि स्व-नियमन से मदद नहीं मिलती है, तो पोषण विशेषज्ञ या चिकित्सा चिकित्सक से मिलने की सलाह दी जाती है।</t>
+  </si>
+  <si>
+    <t>खाने के पैटर्न पर ध्यान देने की ज़रूरत है। कभी-कभी, कमियों और पोषण असंतुलन के कारण खाने के पैटर्न में गड़बड़ी हो जाती है। इसे दूर करने के लिए स्वास्थ्य जांच की आवश्यकता हो सकती है। हालांकि, कभी-कभी यह जीवनशैली की प्राथमिकताओं या व्यक्तिगत भोजन विकल्पों के कारण भी होता है। खाने की आदतों में बदलाव करके ज़्यादा पौष्टिक भोजन शामिल करें और जंक फ़ूड को कम करें, भोजन न छोड़ें और भाग नियंत्रण (भूख के अनुसार खाएं और इच्छा के अनुसार नहीं) की सलाह दी जाती है। अगर स्व-नियमन से मदद नहीं मिलती है, तो पोषण विशेषज्ञ या मेडिकल डॉक्टर से मिलने की सलाह दी जाती है।</t>
+  </si>
+  <si>
+    <t>आप बहुत सक्रिय व्यक्ति लगते हैं! ताकत और मनोरंजन के लिए अपनी मांसपेशियों को हिलाते रहें!</t>
+  </si>
+  <si>
+    <t>शारीरिक गतिविधि का स्तर पर्याप्त नहीं है। यह सामान्य सीमा से थोड़ा नीचे है। कम से कम एक घंटे की जोरदार गतिविधि जैसे कि आउटडोर खेल, तैराकी, साइकिल चलाना, तेज चलना या शक्ति प्रशिक्षण की सिफारिश की जाती है। धीरे-धीरे शारीरिक गतिविधि बढ़ाएँ, इसे अनुशंसित स्तरों पर लाने के लिए हर दिन कुछ अतिरिक्त मिनट जोड़ें। गहन शारीरिक गतिविधि (जैसे वजन उठाना) विशेषज्ञ की देखरेख में की जानी चाहिए।</t>
+  </si>
+  <si>
+    <t>शारीरिक गतिविधि का स्तर पर्याप्त नहीं है। यह चिंताजनक सीमा में है। यदि दर्द, जकड़न या मोटापा है, तो डॉक्टर से परामर्श करें। यदि रुचि की कमी या हतोत्साहन है, तो माता-पिता, शिक्षकों या अन्य विश्वसनीय वयस्कों से सहायता लें, या मनोवैज्ञानिक से परामर्श लें। कम से कम एक घंटे की जोरदार गतिविधि जैसे कि आउटडोर खेल, तैराकी, साइकिल चलाना, तेज चलना या शक्ति प्रशिक्षण की सिफारिश की जाती है। धीरे-धीरे शारीरिक गतिविधि बढ़ाएँ, इसे अनुशंसित स्तरों पर लाने के लिए हर दिन कुछ अतिरिक्त मिनट जोड़ें। तीव्र शारीरिक गतिविधि (जैसे वजन उठाना) विशेषज्ञ की देखरेख में की जानी चाहिए।</t>
+  </si>
+  <si>
+    <t>शारीरिक गतिविधि का स्तर पर्याप्त नहीं है। अगर दर्द, जकड़न या मोटापा है, तो डॉक्टर से सलाह लें। अगर रुचि की कमी या प्रेरणा की कमी है, तो दोस्तों, माता-पिता, शिक्षकों या अन्य विश्वसनीय वयस्कों से मदद लें या मनोवैज्ञानिक से सलाह लें। उचित शारीरिक गतिविधि के स्तर पर वापस आने का सबसे आसान तरीका धीरे-धीरे गतिविधि बढ़ाना है, हर दिन कुछ अतिरिक्त मिनट जोड़ना है। गहन शारीरिक गतिविधि (जैसे वजन उठाना) विशेषज्ञ की देखरेख में की जानी चाहिए।</t>
+  </si>
+  <si>
+    <t>आपका रिलेशनशिप स्कोर बताता है कि आपके आस-पास के लोगों के साथ आपके स्वस्थ और अच्छे रिश्ते हैं। अपने रिश्तों को अच्छी तरह से संभालना जारी रखें।</t>
+  </si>
+  <si>
+    <t>रिश्तों पर ध्यान देने की ज़रूरत है। खुद को और दूसरों को वैसे ही स्वीकार करना जैसे वे हैं, और व्यक्तिगत मतभेदों को बहुत ज़्यादा महत्व न देना बेहतर रिश्ते बनाने में मदद कर सकता है। लोगों को माफ़ करना और यह स्वीकार करना कि वे अलग-अलग परिस्थितियों में अलग-अलग सोचेंगे और अलग-अलग प्रतिक्रिया देंगे, रिश्तों की गुणवत्ता को बेहतर बनाने में मदद कर सकता है।</t>
+  </si>
+  <si>
+    <t>अपने पारस्परिक संबंधों पर ध्यान दें। उनकी गुणवत्ता/मात्रा चिंताजनक सीमा में है। रिश्तों में ज़्यादातर समस्याएँ ज़रूरत से ज़्यादा परेशान होने, दूसरों को परेशान करने वाली चीज़ें करने और ऐसी हरकतें करने से बचते हैं जो समस्या को हल करने में मदद कर सकती हैं। उदाहरण के लिए, किसी विवाद में, बहुत ज़्यादा गुस्सा होने से विवाद का कारण समझने के बजाय उस व्यक्ति पर चिल्लाना पड़ सकता है, जिससे स्थिति और खराब हो सकती है। खुद को और दूसरों को वैसे ही स्वीकार करना जैसे वे हैं, और व्यक्तिगत मतभेदों को बहुत ज़्यादा महत्व न देना, बेहतर रिश्ते बनाने में मदद कर सकता है। विवाद के समय, खुद को शांत करें और व्यक्ति से बात करके, समस्याओं पर चर्चा करके, मुद्दों को हल करके, उन्हें माफ़ करके और यह स्वीकार करके कि लोग अलग-अलग स्थितियों में अलग-अलग सोचेंगे और प्रतिक्रिया करेंगे, रिश्तों को बेहतर बनाने का प्रयास करें।</t>
+  </si>
+  <si>
+    <t>पारस्परिक संबंधों पर ध्यान देने और काम करने की आवश्यकता है। रिश्तों में अधिकांश समस्याएँ आवश्यकता से अधिक परेशान होने, दूसरों को परेशान करने वाली चीजें करने और उन कार्यों से बचने के कारण होती हैं जो समस्या को हल करने में मदद कर सकते हैं। उदाहरण के लिए, किसी संघर्ष में, बहुत अधिक क्रोधित होने से संघर्ष का कारण समझने के बजाय व्यक्ति पर चिल्लाना पड़ सकता है, जिससे स्थिति और खराब हो सकती है। खुद को और दूसरों को इंसान के रूप में स्वीकार करना और व्यक्तिगत मतभेदों को बहुत अधिक महत्व न देना बेहतर संबंध बनाने में मदद कर सकता है। संघर्ष के समय, खुद को शांत करें और व्यक्ति से बात करके, समस्याओं पर चर्चा करके, मुद्दों को हल करके, उन्हें माफ करके और यह स्वीकार करके संबंधों को बेहतर बनाने का प्रयास करें कि लोग अलग-अलग स्थितियों में अलग-अलग सोचेंगे और प्रतिक्रिया करेंगे।</t>
+  </si>
+  <si>
+    <t>आपका आचरण बहुत बढ़िया है! आप अपने और सभी के साथ सही व्यवहार करने के सही रास्ते पर हैं! अपना आचरण अच्छा बनाए रखें।</t>
+  </si>
+  <si>
+    <t>आपके कुछ मौजूदा व्यवहारों में सुधार किया जा सकता है। अपने व्यवहार का निरीक्षण करें—आप रोज़ाना क्या कर रहे हैं या क्या नहीं कर रहे हैं। लंबे समय में कौन से कार्य मददगार और कौन से बेकार हैं, इसके बीच अंतर करना सीखें। अपने और दूसरों के लिए अपने कार्यों के परिणामों के बारे में सोचें, दोनों ही अल्पावधि और दीर्घावधि में। उदाहरण के लिए, पढ़ाई से बचना अच्छा लगता है, लेकिन लंबे समय में यह मददगार नहीं है। स्वस्थ व्यवहार संबंधी आदतों का अभ्यास करें जो आपके और दूसरों के लिए फायदेमंद होंगी।</t>
+  </si>
+  <si>
+    <t>आपके कुछ मौजूदा व्यवहार चिंताजनक श्रेणी में हैं। कभी-कभी हम एक निश्चित तरीके से व्यवहार करना सीखते हैं क्योंकि यह हमें अच्छा महसूस कराता है। हालाँकि, हर वह चीज़ जो अच्छी लगती है, वह स्वस्थ नहीं होती। उदाहरण के लिए, पढ़ाई से बचना अच्छा लगता है लेकिन लंबे समय में मददगार नहीं होता। रोज़ाना देखें कि आप क्या कर रहे हैं या क्या नहीं कर रहे हैं। लंबे समय में कौन सी हरकतें मददगार और बेकार हैं, इसके बीच अंतर करना सीखें। अपने और दूसरों के लिए अपने कामों के परिणामों के बारे में सोचें, दोनों ही मामलों में। ऐसी व्यवहार संबंधी आदतों का अभ्यास करें जो आपके और दूसरों के लिए मददगार हों। साथ ही, ऐसी हरकतों से बचने का अभ्यास करें जो बेकार या हानिकारक हों। भले ही आपकी कुछ हरकतें नियंत्रण से बाहर लगें (जैसे, ज़्यादा खाना), उन्हें व्यवहार प्रबंधन तकनीकों से बदला जा सकता है।</t>
+  </si>
+  <si>
+    <t>आपके व्यवहार के प्रभाव शायद आपको स्पष्ट न हों, लेकिन आपके स्कोर संकेत देते हैं कि उन्हें तत्काल ध्यान देने की आवश्यकता है। कभी-कभी हम एक निश्चित तरीके से व्यवहार करना सीखते हैं क्योंकि यह हमें अच्छा महसूस कराता है, लेकिन हर वह चीज़ जो अच्छी लगती है, वह लंबे समय में स्वस्थ नहीं होती। रोज़ाना देखें कि आप क्या कर रहे हैं या क्या नहीं कर रहे हैं। लंबे समय में कौन सी क्रियाएँ सहायक और अनुपयोगी हैं, इसके बीच अंतर करना सीखें। अपने और दूसरों के लिए अपने कार्यों के परिणामों के बारे में सोचें, दोनों ही अल्पावधि और दीर्घावधि में। उदाहरण के लिए, पढ़ाई से बचना अच्छा लगता है, लेकिन लंबे समय में यह मददगार नहीं होता। ऐसी व्यवहारिक आदतों का अभ्यास करें जो आपके और दूसरों के लिए फ़ायदेमंद हों। साथ ही, ऐसी क्रियाओं से बचने का अभ्यास करें जो अनुपयोगी या हानिकारक हों। भले ही आपकी कुछ क्रियाएँ नियंत्रण से बाहर लगें, लेकिन उन्हें प्रबंधित किया जा सकता है। व्यवहार प्रबंधन तकनीक सीखने के लिए सहायता लें।</t>
+  </si>
+  <si>
+    <t>अच्छे विचार अच्छे कार्यों में बदल जाएंगे! आप अपने विचारों से सकारात्मक तरीके से निपटने में बहुत अच्छा काम कर रहे हैं। अपने विचारों को अच्छी तरह से प्रबंधित करना जारी रखें।</t>
+  </si>
+  <si>
+    <t>आपके स्कोर से पता चलता है कि आप कुछ नकारात्मक विचारों का अनुभव कर रहे हैं। हम अपनी सोच को नियंत्रित नहीं कर सकते, लेकिन हम इसे बहुत हद तक प्रभावित कर सकते हैं। जब भी आप किसी मुश्किल या परेशान करने वाली स्थिति का सामना करते हैं, तो देखें कि क्या आप इसे अधिक सकारात्मक या आशावादी मन से प्रतिक्रिया दे सकते हैं। अगर आपको इसे स्वयं करने में कठिनाई हो रही है, तो दूसरों की मदद लें।</t>
+  </si>
+  <si>
+    <t>आपके स्कोर से पता चलता है कि आप नकारात्मक विचारों का अनुभव कर रहे हैं जो परेशान करने वाले हो सकते हैं। हमारा मस्तिष्क एक निरंतर सोचने वाली मशीन है। जब कुछ ऐसा होता है जो हमें पसंद नहीं होता, तो हमारे मन में नकारात्मक विचार आ सकते हैं। सभी नकारात्मक विचारों पर विश्वास न करें। हम अपने सभी विचारों को नियंत्रित नहीं कर सकते; हालाँकि, हम उन पर अलग-अलग तरीके से प्रतिक्रिया कर सकते हैं। जब भी आप किसी कठिन या परेशान करने वाली स्थिति का सामना करते हैं, तो देखें कि क्या आप उस पर अधिक सकारात्मक या आशावादी मन से प्रतिक्रिया कर सकते हैं। यदि आपके विचार परेशान करने वाले बने रहते हैं, तो अपने माता-पिता या किसी विश्वसनीय वयस्क से सहायता लें और यह समझने के लिए डॉक्टर/चिकित्सक से बात करें कि क्या हो रहा है और इन मुद्दों को कैसे प्रबंधित किया जाए।</t>
+  </si>
+  <si>
+    <t>आपके स्कोर से पता चलता है कि आप नकारात्मक विचारों का अनुभव कर रहे हैं जो परेशान करने वाले हो सकते हैं, और ये विचार चिंताजनक सीमा में हैं। हमारा मस्तिष्क एक निरंतर सोचने वाली मशीन है। जब कुछ ऐसा होता है जो हमें पसंद नहीं होता है, तो हमारे मन में नकारात्मक विचार आ सकते हैं। सभी नकारात्मक विचारों पर विश्वास न करें। अगर आपके विचार परेशान करने वाले बने रहते हैं, तो अपने माता-पिता या किसी भरोसेमंद वयस्क से सहायता लें और किसी चिकित्सक से बात करें।</t>
+  </si>
+  <si>
+    <t>ऐसा लगता है कि आपका शरीर इस बात से खुश है कि आप उसका ख्याल रख रहे हैं! अपने शरीर की बात सुनने के लिए आपको बधाई! अपने शरीर के स्वास्थ्य का प्रबंधन करना जारी रखें।</t>
+  </si>
+  <si>
+    <t>आपके शारीरिक स्वास्थ्य को कुछ ध्यान देने की आवश्यकता हो सकती है। कभी-कभी हम अपने शरीर में असहज महसूस कर सकते हैं, और यह शरीर के लिए कार्रवाई करने का संकेत हो सकता है। यदि आप अच्छा महसूस नहीं कर रहे हैं, तो स्वास्थ्य जांच करवाएं, खासकर यदि आपने पिछले छह महीनों में कोई जांच नहीं करवाई है। यदि आप पहले से ही अपनी शारीरिक स्थिति के बारे में जानते हैं और चिकित्सा सहायता ले रहे हैं, तो डॉक्टर की सलाह से ट्रैक पर बने रहें (नियमित दवाओं, व्यायाम, चिकित्सा के माध्यम से)।</t>
+  </si>
+  <si>
+    <t>आपके शारीरिक स्वास्थ्य पर ध्यान देने की ज़रूरत है। कभी-कभी हम अपने शरीर में असहज महसूस कर सकते हैं, और यह शरीर के लिए कार्रवाई करने का संकेत हो सकता है। अगर आप अच्छा महसूस नहीं कर रहे हैं, तो स्वास्थ्य जांच करवाएं। लंबे समय तक और तीव्र परेशानी का डॉक्टर द्वारा मूल्यांकन किया जाना चाहिए। अगर आप पहले से ही अपनी शारीरिक स्थिति के बारे में जानते हैं और चिकित्सा सहायता ले रहे हैं (नियमित दवाओं, व्यायाम, चिकित्सा के माध्यम से), तो डॉक्टर की सलाह पर चलते रहें।</t>
+  </si>
+  <si>
+    <t>आपके शारीरिक स्वास्थ्य पर तत्काल ध्यान देने की आवश्यकता है। शारीरिक संकेतों के कई कारण होते हैं, और उनमें से अधिकांश सामान्य होते हैं। कभी-कभी आप अपने शरीर में असहज महसूस करते हैं, और यह शरीर के लिए कार्रवाई करने का संकेत हो सकता है। उदाहरण के लिए, भूख आपको खाना खाने का संकेत देती है, प्यास आपको पानी पीने का संकेत देती है, और दर्द आपको कार्रवाई करने या आराम करने का संकेत देता है। लंबे समय तक और तीव्र परेशानी का डॉक्टर द्वारा मूल्यांकन किया जाना चाहिए। यदि आपने पिछले छह महीनों में नियमित स्वास्थ्य जांच नहीं करवाई है, तो अपना नियमित स्वास्थ्य परीक्षण करवाएं। यदि आप पहले से ही अपनी शारीरिक स्थिति के बारे में जानते हैं और चिकित्सा सहायता ले रहे हैं, तो डॉक्टर की सलाह पर चलते रहें।</t>
+  </si>
+  <si>
+    <t>आप अपनी भावनाओं को कितनी अच्छी तरह से प्रबंधित कर रहे हैं, इसके लिए बधाई! अच्छा काम जारी रखें।</t>
+  </si>
+  <si>
+    <t>आपके स्कोर से पता चलता है कि आप कुछ नकारात्मक भावनाओं का अनुभव कर रहे हैं। जब आप तीव्र नकारात्मक भावनाओं का अनुभव कर रहे हों, तो खुद को बेहतर महसूस कराने के तरीकों के बारे में सोचें। उदाहरण के लिए, आप लंबी सैर कर सकते हैं, कोई हल्की-फुल्की किताब पढ़ सकते हैं, कोई फिल्म/सीरीज़ देख सकते हैं, किसी दोस्त से बात कर सकते हैं, आदि।</t>
+  </si>
+  <si>
+    <t>आपके स्कोर से पता चलता है कि आप सामान्य से ज़्यादा नकारात्मक भावनाओं का अनुभव कर रहे हैं। हमारी भावनाएँ हमारी सोच, जीवन की घटनाओं और हमारे मस्तिष्क की प्रक्रियाओं से आती हैं। तीव्र नकारात्मक भावनाएँ हमारे द्वारा पहले से अर्जित कौशल/ज्ञान को व्यक्त करने की हमारी क्षमता को कम कर सकती हैं और नई चीज़ों को सीखने और समझने की हमारी क्षमता में बाधा डाल सकती हैं। भावनाओं को प्रबंधित और नियंत्रित करना संभव है, और हम दूसरों की नकल करके (उनसे सीखकर या समझकर) ऐसा कर सकते हैं जो अपनी भावनाओं को अच्छी तरह से प्रबंधित करते हैं। तीव्र और लंबे समय तक नकारात्मक भावनाएँ भावनात्मक दर्द का कारण बन सकती हैं, स्पष्ट सोच को कम कर सकती हैं, बेकार व्यवहार को जन्म दे सकती हैं और हमें उन चीज़ों से दूर कर सकती हैं जो मदद कर सकती थीं। जब आप तीव्र नकारात्मक भावनाओं को महसूस कर रहे हों, तो खुद को बेहतर महसूस कराने के तरीके आज़माएँ, जैसे लंबी सैर करना, हल्की-फुल्की किताब पढ़ना, कोई फ़िल्म/सीरीज़ देखना या किसी दोस्त से बात करना। अगर भावनाएँ परेशान करने वाली बनी रहती हैं, तो माता-पिता और शिक्षकों जैसे भरोसेमंद वयस्कों से सहायता लें। अगर आपके स्कूल में कोई काउंसलर है, तो कृपया उनसे मिलें।</t>
+  </si>
+  <si>
+    <t>आपकी नकारात्मक भावनाओं पर तुरंत ध्यान देने की आवश्यकता है। हमारी भावनाएँ हमारी सोच, जीवन की घटनाओं और हमारे मस्तिष्क की प्रक्रियाओं से आती हैं। तीव्र नकारात्मक भावनाएँ आपके पास पहले से मौजूद कौशल/ज्ञान को व्यक्त करने की आपकी क्षमता को भी कम कर सकती हैं और नए कौशल हासिल करने की आपकी क्षमता में बाधा डाल सकती हैं। भावनाओं को प्रबंधित करना और नियंत्रित करना संभव है, और हम आम तौर पर दूसरों की नकल करके ऐसा करते हैं जो अपनी भावनाओं को अच्छी तरह से प्रबंधित करते हैं। हालाँकि नकारात्मक भावनाओं को महसूस करना कार्रवाई करने और खुद को समस्याओं से बचाने के लिए आवश्यक है, अगर ये भावनाएँ महत्वपूर्ण भावनात्मक दर्द का कारण बन रही हैं, जिससे अनुपयोगी कार्य हो रहे हैं, या शिक्षा या रिश्तों में बाधा आ रही है, तो परेशान करने वाली भावनाओं को प्रबंधित करना सीखने के लिए तुरंत सहायता लें। भावनाओं को अच्छी तरह से प्रबंधित करना जीवन के सभी क्षेत्रों में अपने लक्ष्यों को कुशलतापूर्वक प्राप्त करने की कुंजी है। भावनाओं को प्रबंधित करने की अन्य प्रभावी तकनीकें प्रशिक्षित मनोवैज्ञानिकों और परामर्शदाताओं से सीखी जा सकती हैं।</t>
+  </si>
+  <si>
+    <t>कुल मिलाकर स्कोर बहुत बढ़िया है। अपना ख्याल रखना जारी रखें। नींद, स्क्रीन टाइम, खाने के तरीके, शारीरिक गतिविधि, अपने व्यवहार और भावनाओं को प्रबंधित करने के बारे में सिफारिशों का अच्छी तरह से पालन किया जा रहा है। रिश्ते और शारीरिक स्वास्थ्य भी अच्छे क्रम में दिखाई देते हैं। ट्रैक पर बने रहने के लिए सिफारिशों का पालन करना जारी रखें।</t>
+  </si>
+  <si>
+    <t>कुल मिलाकर स्कोर अच्छा है लेकिन इसमें सुधार की गुंजाइश है। ज़्यादातर स्वास्थ्य संकेतक स्वस्थ हैं, लेकिन कुछ पर आपको ध्यान देने और कार्रवाई करने की ज़रूरत है। उन्हें नज़रअंदाज़ करने से समस्याएँ और भी बदतर हो सकती हैं। प्रत्येक क्षेत्र में दी गई सिफ़ारिशों पर नज़र डालें और देखें कि आप क्या कर सकते हैं। याद रखें, समय पर की गई एक सिलाई नौ टांकों को बचाती है।</t>
+  </si>
+  <si>
+    <t>कुल स्कोर चिंताजनक है। आप ऐसी समस्याओं का सामना कर रहे हैं जो आपकी भलाई को प्रभावित करती हैं। यह कार्रवाई करने का सही समय है। बिना कार्रवाई किए समस्याओं के अपने आप हल होने का इंतज़ार करना उन्हें और भी बदतर बना सकता है। प्रत्येक अनुभाग पर एक नज़र डालें ताकि आप आज ही कार्रवाई कर सकें।</t>
+  </si>
+  <si>
+    <t>कुल स्कोर समस्याग्रस्त हैं। नीचे दिए गए विवरण की जाँच की जानी चाहिए कि किन समस्याओं का सामना किया जा रहा है। इन समस्याओं के लिए अतिरिक्त मूल्यांकन और सहायता की आवश्यकता होती है। परामर्शदाता या मनोवैज्ञानिक से परामर्श की सलाह दी जाती है। किशोरावस्था के दौरान कई लोग इससे गुज़रते हैं और वे अपनी चुनौतियों से सफलतापूर्वक निपटने में सक्षम होते हैं। यह कार्रवाई करने का सही समय है। बिना कार्रवाई किए समस्याओं के अपने आप हल होने का इंतज़ार करना उन्हें और भी बदतर बना सकता है। प्रत्येक अनुभाग पर एक नज़र डालें ताकि आप आज ही कार्रवाई कर सकें।</t>
   </si>
 </sst>
 </file>
@@ -200,8 +323,9 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -213,7 +337,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -221,14 +345,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,586 +591,709 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="3">
         <v>0</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="3">
         <v>3</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="3">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="3">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="3">
         <v>6</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>7</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>8</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="3">
         <v>0</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="3">
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="3">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="3">
         <v>8</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="3">
         <v>9</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="3">
         <v>12</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="3">
         <v>13</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="3">
         <v>16</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="3">
         <v>0</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="3">
         <v>2</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="3">
         <v>3</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="3">
         <v>4</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B12" s="3">
         <v>5</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="3">
         <v>6</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B13" s="3">
         <v>7</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="3">
         <v>8</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B14" s="3">
         <v>0</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="3">
         <v>5</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B15" s="3">
         <v>6</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="3">
         <v>10</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B16" s="3">
         <v>11</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="3">
         <v>15</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B17" s="3">
         <v>16</v>
       </c>
-      <c r="C17" s="1">
+      <c r="C17" s="3">
         <v>20</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B18" s="3">
         <v>0</v>
       </c>
-      <c r="C18" s="1">
+      <c r="C18" s="3">
         <v>2</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B19" s="3">
         <v>3</v>
       </c>
-      <c r="C19" s="1">
+      <c r="C19" s="3">
         <v>4</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
+      <c r="E19" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B20" s="3">
         <v>5</v>
       </c>
-      <c r="C20" s="1">
+      <c r="C20" s="3">
         <v>6</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="E20" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B21" s="3">
         <v>7</v>
       </c>
-      <c r="C21" s="1">
+      <c r="C21" s="3">
         <v>8</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B22" s="3">
         <v>0</v>
       </c>
-      <c r="C22" s="1">
+      <c r="C22" s="3">
         <v>10</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
+      <c r="E22" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B23" s="3">
         <v>11</v>
       </c>
-      <c r="C23" s="1">
+      <c r="C23" s="3">
         <v>20</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="E23" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B24" s="3">
         <v>21</v>
       </c>
-      <c r="C24" s="1">
+      <c r="C24" s="3">
         <v>30</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="E24" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B25" s="3">
         <v>31</v>
       </c>
-      <c r="C25" s="1">
+      <c r="C25" s="3">
         <v>40</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="E25" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="3">
         <v>0</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26" s="3">
         <v>5</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="E26" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27" s="3">
         <v>6</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27" s="3">
         <v>10</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="E27" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28" s="3">
         <v>11</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28" s="3">
         <v>15</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="E28" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29" s="3">
         <v>16</v>
       </c>
-      <c r="C29" s="1">
+      <c r="C29" s="3">
         <v>20</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="E29" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30" s="3">
         <v>0</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30" s="3">
         <v>3</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="E30" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B31" s="3">
         <v>4</v>
       </c>
-      <c r="C31" s="1">
+      <c r="C31" s="3">
         <v>6</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="E31" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B32" s="3">
         <v>7</v>
       </c>
-      <c r="C32" s="1">
+      <c r="C32" s="3">
         <v>9</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="E32" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B33" s="3">
         <v>10</v>
       </c>
-      <c r="C33" s="1">
+      <c r="C33" s="3">
         <v>12</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="E33" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B34" s="3">
         <v>0</v>
       </c>
-      <c r="C34" s="1">
+      <c r="C34" s="3">
         <v>9</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="E34" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B35" s="3">
         <v>10</v>
       </c>
-      <c r="C35" s="1">
+      <c r="C35" s="3">
         <v>18</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="E35" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B36" s="3">
         <v>19</v>
       </c>
-      <c r="C36" s="1">
+      <c r="C36" s="3">
         <v>27</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="E36" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B37" s="3">
         <v>28</v>
       </c>
-      <c r="C37" s="1">
+      <c r="C37" s="3">
         <v>36</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="E37" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B38" s="3">
         <v>0</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C38" s="3">
         <v>42</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="E38" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="3">
         <v>43</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="3">
         <v>84</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="E39" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B40" s="3">
         <v>85</v>
       </c>
-      <c r="C40" s="1">
+      <c r="C40" s="3">
         <v>126</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
+      <c r="E40" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B41" s="3">
         <v>127</v>
       </c>
-      <c r="C41" s="1">
+      <c r="C41" s="3">
         <v>168</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>49</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Summary.xlsx
+++ b/Summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ankit\LMI\ReportsAutomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C63CB3B-B007-4840-ABB1-38C5764593B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B9672E-63CB-4FE2-B7CA-303D11D3CD6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="95">
   <si>
     <t>Parameter</t>
   </si>
@@ -309,8 +309,12 @@
     <t>आपका स्कोर चिंताजनक है। आप ऐसी समस्याओं का सामना कर रहे हैं, जो आपकी खुशहाली को प्रभावित करती है। तो इस ओर ध्यान देने की जरूरत है क्योंकि इसे नज़रअंदाज करना और समस्याओं के अपने आप हल होने का इंतजार करना इसे और भी बदतर बना सकता है। हर एक सेक्शन पर एक नज़र डालें ताकि आप आज इस पर काम कर सकें।</t>
   </si>
   <si>
-    <t>स्क्रीन टाइम का ज़्यादा नहीं है और ये अच्छी बात है
-अपनी स्क्रीन टाइम यही कम रखिय। इस्पे और जानकारी के लिए पेज २ पढ़िए।</t>
+    <t xml:space="preserve">स्क्रीन टाइम का ज़्यादा नहीं है और ये अच्छी बात है
+अपनी स्क्रीन टाइम यही कम रखिय। इस्पे और जानकारी के लिए पेज २ पढ़िए।
+</t>
+  </si>
+  <si>
+    <t>कुल स्कोर चिंताजनक हैं। नीचे दिए गए कारणों को जांच कर यह पता लगाना चाहिए की परेशानी की क्या वजह हो सकती है। इसके बाद आपको और जांच और मदद की ज़रुरत पड़ सकती है। अच्छा होगा की आप किसी काउंसलर या साइकोलॉजिस्ट से सलाह लें। कई लोग किशोरावस्था के दौरान ऐसी परेशानियों से गुज़रते हैं और वे चुनौतियों से सफलतापूर्वक निपटने में सक्षम होते हैं। यह सही समय है इसके बारे में जानने का और मदद लेने का। बिना किसी मदद के समस्याओं के स्वयं ठीक होने का इंतजार करने से वे और बिगड़ सकती हैं। नीचे दिए गए सभी कारणों पर एक नज़र डालें ताकि आप आज ही एक्शन ले सकें।</t>
   </si>
 </sst>
 </file>
@@ -611,7 +615,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -633,9 +637,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E1" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -648,11 +654,11 @@
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -665,11 +671,11 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E3" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="52.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -683,10 +689,10 @@
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="52.2" thickBot="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="51.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -699,11 +705,11 @@
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="51.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E5" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -717,10 +723,10 @@
         <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -733,8 +739,8 @@
       <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>58</v>
+      <c r="E7" s="5" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.3">
@@ -751,10 +757,10 @@
         <v>12</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="52.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -768,10 +774,10 @@
         <v>13</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="52.2" thickBot="1" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -784,11 +790,11 @@
       <c r="D10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E10" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
@@ -801,11 +807,11 @@
       <c r="D11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E11" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="52.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -819,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="52.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -836,10 +842,10 @@
         <v>18</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="52.2" thickBot="1" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
@@ -852,11 +858,11 @@
       <c r="D14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E14" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
@@ -869,11 +875,11 @@
       <c r="D15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="52.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
@@ -887,10 +893,10 @@
         <v>22</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="52.2" thickBot="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -904,10 +910,10 @@
         <v>23</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
@@ -921,10 +927,10 @@
         <v>25</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -938,10 +944,10 @@
         <v>26</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="62.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>24</v>
       </c>
@@ -955,7 +961,7 @@
         <v>27</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="62.4" thickBot="1" x14ac:dyDescent="0.3">
@@ -972,10 +978,10 @@
         <v>28</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="62.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>29</v>
       </c>
@@ -989,10 +995,10 @@
         <v>30</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>29</v>
       </c>
@@ -1006,10 +1012,10 @@
         <v>31</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="52.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -1023,7 +1029,7 @@
         <v>32</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="52.2" thickBot="1" x14ac:dyDescent="0.3">
@@ -1040,10 +1046,10 @@
         <v>33</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="52.2" thickBot="1" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -1057,10 +1063,10 @@
         <v>34</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>50</v>
       </c>
@@ -1074,10 +1080,10 @@
         <v>35</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="52.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>50</v>
       </c>
@@ -1091,10 +1097,10 @@
         <v>36</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="52.2" thickBot="1" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
@@ -1108,10 +1114,10 @@
         <v>37</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>51</v>
       </c>
@@ -1125,10 +1131,10 @@
         <v>38</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>51</v>
       </c>
@@ -1142,10 +1148,10 @@
         <v>39</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>51</v>
       </c>
@@ -1159,10 +1165,10 @@
         <v>40</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>51</v>
       </c>
@@ -1176,10 +1182,10 @@
         <v>41</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="42" thickBot="1" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>52</v>
       </c>
@@ -1193,10 +1199,10 @@
         <v>42</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>52</v>
       </c>
@@ -1210,10 +1216,10 @@
         <v>43</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>52</v>
       </c>
@@ -1227,10 +1233,10 @@
         <v>44</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="62.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>52</v>
       </c>
@@ -1244,10 +1250,10 @@
         <v>45</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="62.4" thickBot="1" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="41.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>53</v>
       </c>
@@ -1260,11 +1266,11 @@
       <c r="D38" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="41.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>53</v>
       </c>
@@ -1278,10 +1284,10 @@
         <v>47</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="31.2" thickBot="1" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>53</v>
       </c>
@@ -1295,10 +1301,10 @@
         <v>48</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="41.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
@@ -1312,12 +1318,11 @@
         <v>49</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D41" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>